--- a/model_class_and_types.xlsx
+++ b/model_class_and_types.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14260" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="13980" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="v2.5" sheetId="1" r:id="rId1"/>
-    <sheet name="2D-3D" sheetId="2" r:id="rId2"/>
+    <sheet name="v2.7" sheetId="3" r:id="rId1"/>
+    <sheet name="v2.5" sheetId="1" r:id="rId2"/>
+    <sheet name="2D-3D" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="40">
   <si>
     <t>2D/3D</t>
   </si>
@@ -137,6 +138,12 @@
   </si>
   <si>
     <t>standardized_voxels</t>
+  </si>
+  <si>
+    <t>csgo</t>
+  </si>
+  <si>
+    <t>half-ellipsoid</t>
   </si>
 </sst>
 </file>
@@ -196,6 +203,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table134" displayName="Table134" ref="A1:E10" totalsRowShown="0">
+  <autoFilter ref="A1:E10"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="2D/3D"/>
+    <tableColumn id="2" name="Model Class"/>
+    <tableColumn id="3" name="Model Type"/>
+    <tableColumn id="4" name="Depends on"/>
+    <tableColumn id="5" name="Produces"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A1:E10" totalsRowShown="0">
   <autoFilter ref="A1:E10"/>
   <tableColumns count="5">
@@ -209,7 +230,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G11" totalsRowShown="0">
   <autoFilter ref="A1:G11"/>
   <tableColumns count="7">
@@ -550,10 +571,10 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -739,6 +760,17 @@
       </c>
       <c r="C12" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -759,6 +791,204 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="16" customHeight="1">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/model_class_and_types.xlsx
+++ b/model_class_and_types.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="29005"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/icaoberg/Desktop/temp/cellorganizer-docs/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14260" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19540" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="v2.5" sheetId="1" r:id="rId1"/>
-    <sheet name="2D-3D" sheetId="2" r:id="rId2"/>
+    <sheet name="v2.7" sheetId="3" r:id="rId1"/>
+    <sheet name="v2.5" sheetId="1" r:id="rId2"/>
+    <sheet name="2D-3D" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -23,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="38">
   <si>
     <t>2D/3D</t>
   </si>
@@ -192,10 +201,29 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table134" displayName="Table134" ref="A1:E10" totalsRowShown="0">
+  <autoFilter ref="A1:E10"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="2D/3D"/>
+    <tableColumn id="2" name="Model Class"/>
+    <tableColumn id="3" name="Model Type"/>
+    <tableColumn id="4" name="Depends on"/>
+    <tableColumn id="5" name="Produces"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A1:E10" totalsRowShown="0">
   <autoFilter ref="A1:E10"/>
   <tableColumns count="5">
@@ -209,7 +237,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G11" totalsRowShown="0">
   <autoFilter ref="A1:G11"/>
   <tableColumns count="7">
@@ -556,9 +584,9 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -575,7 +603,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -592,7 +620,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -606,7 +634,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -623,7 +651,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -640,7 +668,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -654,7 +682,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -671,7 +699,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -685,7 +713,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -699,7 +727,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="16" customHeight="1">
+    <row r="10" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -716,7 +744,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -730,7 +758,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -746,15 +774,214 @@
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
@@ -765,9 +992,9 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -790,7 +1017,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -810,7 +1037,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>27</v>
       </c>
@@ -827,7 +1054,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>27</v>
       </c>
@@ -847,7 +1074,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>29</v>
       </c>
@@ -867,7 +1094,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -884,7 +1111,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>29</v>
       </c>
@@ -904,7 +1131,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -921,7 +1148,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -938,7 +1165,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>32</v>
       </c>
@@ -958,7 +1185,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>33</v>
       </c>
@@ -984,10 +1211,5 @@
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/model_class_and_types.xlsx
+++ b/model_class_and_types.xlsx
@@ -1,18 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="29005"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/icaoberg/Desktop/temp/cellorganizer-docs/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="13980" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19540" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="v2.7" sheetId="3" r:id="rId1"/>
-    <sheet name="v2.5" sheetId="1" r:id="rId2"/>
-    <sheet name="2D-3D" sheetId="2" r:id="rId3"/>
+    <sheet name="v2.6" sheetId="4" r:id="rId2"/>
+    <sheet name="v2.5" sheetId="1" r:id="rId3"/>
+    <sheet name="2D-3D" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -24,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="40">
   <si>
     <t>2D/3D</t>
   </si>
@@ -199,6 +208,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -217,6 +231,20 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table135" displayName="Table135" ref="A1:E10" totalsRowShown="0">
+  <autoFilter ref="A1:E10"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="2D/3D"/>
+    <tableColumn id="2" name="Model Class"/>
+    <tableColumn id="3" name="Model Type"/>
+    <tableColumn id="4" name="Depends on"/>
+    <tableColumn id="5" name="Produces"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A1:E10" totalsRowShown="0">
   <autoFilter ref="A1:E10"/>
   <tableColumns count="5">
@@ -230,7 +258,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G11" totalsRowShown="0">
   <autoFilter ref="A1:G11"/>
   <tableColumns count="7">
@@ -577,9 +605,9 @@
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -596,7 +624,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -613,7 +641,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -627,7 +655,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -644,7 +672,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -661,7 +689,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -675,7 +703,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -692,7 +720,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -706,7 +734,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -720,7 +748,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="16" customHeight="1">
+    <row r="10" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -737,7 +765,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -751,7 +779,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -762,7 +790,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -778,11 +806,6 @@
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -797,9 +820,9 @@
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -816,7 +839,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -833,7 +856,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -847,7 +870,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -864,7 +887,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -881,7 +904,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -895,7 +918,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -912,7 +935,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -926,7 +949,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -940,7 +963,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="16" customHeight="1">
+    <row r="10" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -957,7 +980,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -976,15 +999,203 @@
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
@@ -995,9 +1206,9 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -1020,7 +1231,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -1040,7 +1251,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>27</v>
       </c>
@@ -1057,7 +1268,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>27</v>
       </c>
@@ -1077,7 +1288,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>29</v>
       </c>
@@ -1097,7 +1308,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -1114,7 +1325,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>29</v>
       </c>
@@ -1134,7 +1345,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -1151,7 +1362,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -1168,7 +1379,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>32</v>
       </c>
@@ -1188,7 +1399,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>33</v>
       </c>
@@ -1214,10 +1425,5 @@
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/model_class_and_types.xlsx
+++ b/model_class_and_types.xlsx
@@ -5,17 +5,18 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/icaoberg/Desktop/temp/cellorganizer-docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/icaoberg/Desktop/cellorganizer-docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19540" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="19200" windowHeight="19540" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="v2.7" sheetId="3" r:id="rId1"/>
-    <sheet name="v2.6" sheetId="4" r:id="rId2"/>
-    <sheet name="v2.5" sheetId="1" r:id="rId3"/>
-    <sheet name="2D-3D" sheetId="2" r:id="rId4"/>
+    <sheet name="v2.7.1" sheetId="5" r:id="rId1"/>
+    <sheet name="v2.7" sheetId="3" r:id="rId2"/>
+    <sheet name="v2.6" sheetId="4" r:id="rId3"/>
+    <sheet name="v2.5" sheetId="1" r:id="rId4"/>
+    <sheet name="2D-3D" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="41">
   <si>
     <t>2D/3D</t>
   </si>
@@ -153,6 +154,9 @@
   </si>
   <si>
     <t>half-ellipsoid</t>
+  </si>
+  <si>
+    <t>pca</t>
   </si>
 </sst>
 </file>
@@ -217,6 +221,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table1346" displayName="Table1346" ref="A1:E11" totalsRowShown="0">
+  <autoFilter ref="A1:E11"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="2D/3D"/>
+    <tableColumn id="2" name="Model Class"/>
+    <tableColumn id="3" name="Model Type"/>
+    <tableColumn id="4" name="Depends on"/>
+    <tableColumn id="5" name="Produces"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table134" displayName="Table134" ref="A1:E10" totalsRowShown="0">
   <autoFilter ref="A1:E10"/>
   <tableColumns count="5">
@@ -230,7 +248,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table135" displayName="Table135" ref="A1:E10" totalsRowShown="0">
   <autoFilter ref="A1:E10"/>
   <tableColumns count="5">
@@ -244,7 +262,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A1:E10" totalsRowShown="0">
   <autoFilter ref="A1:E10"/>
   <tableColumns count="5">
@@ -258,7 +276,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G11" totalsRowShown="0">
   <autoFilter ref="A1:G11"/>
   <tableColumns count="7">
@@ -599,10 +617,10 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -660,33 +678,30 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E5" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -694,13 +709,16 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
       </c>
       <c r="E6" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -708,35 +726,35 @@
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>12</v>
+      </c>
+      <c r="D8" t="s">
+        <v>9</v>
       </c>
       <c r="E8" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B9" t="s">
         <v>15</v>
@@ -753,16 +771,13 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E10" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -770,13 +785,16 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
+        <v>19</v>
+      </c>
+      <c r="D11" t="s">
+        <v>8</v>
       </c>
       <c r="E11" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -784,10 +802,13 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>36</v>
+        <v>22</v>
+      </c>
+      <c r="E12" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -795,9 +816,20 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
         <v>38</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C14" t="s">
         <v>39</v>
       </c>
     </row>
@@ -814,10 +846,10 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -992,6 +1024,28 @@
       </c>
       <c r="E11" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1200,6 +1254,199 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/model_class_and_types.xlsx
+++ b/model_class_and_types.xlsx
@@ -1,24 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="29005"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10523"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/icaoberg/Desktop/cellorganizer-docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{F0D26C34-C35B-984F-B9AD-580A15E81BD4}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="19200" windowHeight="19540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="19200" windowHeight="19540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="v2.7.1" sheetId="5" r:id="rId1"/>
-    <sheet name="v2.7" sheetId="3" r:id="rId2"/>
-    <sheet name="v2.6" sheetId="4" r:id="rId3"/>
-    <sheet name="v2.5" sheetId="1" r:id="rId4"/>
-    <sheet name="2D-3D" sheetId="2" r:id="rId5"/>
+    <sheet name="v2.7.2" sheetId="6" r:id="rId1"/>
+    <sheet name="v2.7.1" sheetId="5" r:id="rId2"/>
+    <sheet name="v2.7" sheetId="3" r:id="rId3"/>
+    <sheet name="v2.6" sheetId="4" r:id="rId4"/>
+    <sheet name="v2.5" sheetId="1" r:id="rId5"/>
+    <sheet name="2D-3D" sheetId="2" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4" concurrentCalc="0"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="41">
   <si>
     <t>2D/3D</t>
   </si>
@@ -162,7 +164,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -216,77 +218,94 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table1346" displayName="Table1346" ref="A1:E11" totalsRowShown="0">
-  <autoFilter ref="A1:E11"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{92FA6D65-1AFB-464C-85DE-CB7B4A859DF7}" name="Table13467" displayName="Table13467" ref="A1:E11" totalsRowShown="0">
+  <autoFilter ref="A1:E11" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="2D/3D"/>
-    <tableColumn id="2" name="Model Class"/>
-    <tableColumn id="3" name="Model Type"/>
-    <tableColumn id="4" name="Depends on"/>
-    <tableColumn id="5" name="Produces"/>
+    <tableColumn id="1" xr3:uid="{A8907B08-C33C-D349-8327-99456ACE60BD}" name="2D/3D"/>
+    <tableColumn id="2" xr3:uid="{C50F2F52-761F-134D-9AAD-009A097A9314}" name="Model Class"/>
+    <tableColumn id="3" xr3:uid="{EC16A242-BCF1-DD4A-8FB4-F630FBBB49A5}" name="Model Type"/>
+    <tableColumn id="4" xr3:uid="{A5DDA58A-2008-2C4C-A2FC-8408A8B1B58E}" name="Depends on"/>
+    <tableColumn id="5" xr3:uid="{15B91142-38AD-4F46-BDF3-044FFAA6EC06}" name="Produces"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table134" displayName="Table134" ref="A1:E10" totalsRowShown="0">
-  <autoFilter ref="A1:E10"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1346" displayName="Table1346" ref="A1:E11" totalsRowShown="0">
+  <autoFilter ref="A1:E11" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="2D/3D"/>
-    <tableColumn id="2" name="Model Class"/>
-    <tableColumn id="3" name="Model Type"/>
-    <tableColumn id="4" name="Depends on"/>
-    <tableColumn id="5" name="Produces"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="2D/3D"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Model Class"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Model Type"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Depends on"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Produces"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table135" displayName="Table135" ref="A1:E10" totalsRowShown="0">
-  <autoFilter ref="A1:E10"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table134" displayName="Table134" ref="A1:E10" totalsRowShown="0">
+  <autoFilter ref="A1:E10" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="2D/3D"/>
-    <tableColumn id="2" name="Model Class"/>
-    <tableColumn id="3" name="Model Type"/>
-    <tableColumn id="4" name="Depends on"/>
-    <tableColumn id="5" name="Produces"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="2D/3D"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Model Class"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Model Type"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Depends on"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Produces"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A1:E10" totalsRowShown="0">
-  <autoFilter ref="A1:E10"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table135" displayName="Table135" ref="A1:E10" totalsRowShown="0">
+  <autoFilter ref="A1:E10" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="2D/3D"/>
-    <tableColumn id="2" name="Model Class"/>
-    <tableColumn id="3" name="Model Type"/>
-    <tableColumn id="4" name="Depends on"/>
-    <tableColumn id="5" name="Produces"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="2D/3D"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Model Class"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Model Type"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Depends on"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Produces"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G11" totalsRowShown="0">
-  <autoFilter ref="A1:G11"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table13" displayName="Table13" ref="A1:E10" totalsRowShown="0">
+  <autoFilter ref="A1:E10" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="2D/3D"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Model Class"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Model Type"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Depends on"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Produces"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table1" displayName="Table1" ref="A1:G11" totalsRowShown="0">
+  <autoFilter ref="A1:G11" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="OAuthor"/>
-    <tableColumn id="2" name="Dimensionality"/>
-    <tableColumn id="3" name="Model Class"/>
-    <tableColumn id="4" name="Model Type"/>
-    <tableColumn id="5" name="Depends on"/>
-    <tableColumn id="6" name="Produces"/>
-    <tableColumn id="7" name="Comment"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="OAuthor"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Dimensionality"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="Model Class"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="Model Type"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="Depends on"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0400-000006000000}" name="Produces"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0400-000007000000}" name="Comment"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -613,8 +632,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F05E7B5E-329D-294E-9043-938BC7C2257E}">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:E14"/>
@@ -842,8 +861,237 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:E14"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:E13"/>
@@ -1056,9 +1304,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:E11"/>
@@ -1249,9 +1497,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:E11"/>
@@ -1442,9 +1690,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:G11"/>

--- a/model_class_and_types.xlsx
+++ b/model_class_and_types.xlsx
@@ -1,32 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10523"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/icaoberg/Desktop/cellorganizer-docs/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{F0D26C34-C35B-984F-B9AD-580A15E81BD4}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="19200" windowHeight="19540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14180" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="v2.7.2" sheetId="6" r:id="rId1"/>
-    <sheet name="v2.7.1" sheetId="5" r:id="rId2"/>
-    <sheet name="v2.7" sheetId="3" r:id="rId3"/>
-    <sheet name="v2.6" sheetId="4" r:id="rId4"/>
-    <sheet name="v2.5" sheetId="1" r:id="rId5"/>
-    <sheet name="2D-3D" sheetId="2" r:id="rId6"/>
+    <sheet name="v2.8.0" sheetId="9" r:id="rId1"/>
+    <sheet name="v2.7.2" sheetId="6" r:id="rId2"/>
+    <sheet name="v2.7.1" sheetId="5" r:id="rId3"/>
+    <sheet name="v2.7" sheetId="3" r:id="rId4"/>
+    <sheet name="v2.6" sheetId="4" r:id="rId5"/>
+    <sheet name="v2.5" sheetId="1" r:id="rId6"/>
+    <sheet name="2D-3D" sheetId="2" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="0" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -36,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="41">
   <si>
     <t>2D/3D</t>
   </si>
@@ -164,7 +159,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -226,86 +221,100 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{92FA6D65-1AFB-464C-85DE-CB7B4A859DF7}" name="Table13467" displayName="Table13467" ref="A1:E11" totalsRowShown="0">
-  <autoFilter ref="A1:E11" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table134678" displayName="Table134678" ref="A1:E11" totalsRowShown="0">
+  <autoFilter ref="A1:E11"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{A8907B08-C33C-D349-8327-99456ACE60BD}" name="2D/3D"/>
-    <tableColumn id="2" xr3:uid="{C50F2F52-761F-134D-9AAD-009A097A9314}" name="Model Class"/>
-    <tableColumn id="3" xr3:uid="{EC16A242-BCF1-DD4A-8FB4-F630FBBB49A5}" name="Model Type"/>
-    <tableColumn id="4" xr3:uid="{A5DDA58A-2008-2C4C-A2FC-8408A8B1B58E}" name="Depends on"/>
-    <tableColumn id="5" xr3:uid="{15B91142-38AD-4F46-BDF3-044FFAA6EC06}" name="Produces"/>
+    <tableColumn id="1" name="2D/3D"/>
+    <tableColumn id="2" name="Model Class"/>
+    <tableColumn id="3" name="Model Type"/>
+    <tableColumn id="4" name="Depends on"/>
+    <tableColumn id="5" name="Produces"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1346" displayName="Table1346" ref="A1:E11" totalsRowShown="0">
-  <autoFilter ref="A1:E11" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table13467" displayName="Table13467" ref="A1:E11" totalsRowShown="0">
+  <autoFilter ref="A1:E11"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="2D/3D"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Model Class"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Model Type"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Depends on"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Produces"/>
+    <tableColumn id="1" name="2D/3D"/>
+    <tableColumn id="2" name="Model Class"/>
+    <tableColumn id="3" name="Model Type"/>
+    <tableColumn id="4" name="Depends on"/>
+    <tableColumn id="5" name="Produces"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table134" displayName="Table134" ref="A1:E10" totalsRowShown="0">
-  <autoFilter ref="A1:E10" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table1346" displayName="Table1346" ref="A1:E11" totalsRowShown="0">
+  <autoFilter ref="A1:E11"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="2D/3D"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Model Class"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Model Type"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Depends on"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Produces"/>
+    <tableColumn id="1" name="2D/3D"/>
+    <tableColumn id="2" name="Model Class"/>
+    <tableColumn id="3" name="Model Type"/>
+    <tableColumn id="4" name="Depends on"/>
+    <tableColumn id="5" name="Produces"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table135" displayName="Table135" ref="A1:E10" totalsRowShown="0">
-  <autoFilter ref="A1:E10" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table134" displayName="Table134" ref="A1:E10" totalsRowShown="0">
+  <autoFilter ref="A1:E10"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="2D/3D"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Model Class"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Model Type"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Depends on"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Produces"/>
+    <tableColumn id="1" name="2D/3D"/>
+    <tableColumn id="2" name="Model Class"/>
+    <tableColumn id="3" name="Model Type"/>
+    <tableColumn id="4" name="Depends on"/>
+    <tableColumn id="5" name="Produces"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table13" displayName="Table13" ref="A1:E10" totalsRowShown="0">
-  <autoFilter ref="A1:E10" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table135" displayName="Table135" ref="A1:E10" totalsRowShown="0">
+  <autoFilter ref="A1:E10"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="2D/3D"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Model Class"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Model Type"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Depends on"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Produces"/>
+    <tableColumn id="1" name="2D/3D"/>
+    <tableColumn id="2" name="Model Class"/>
+    <tableColumn id="3" name="Model Type"/>
+    <tableColumn id="4" name="Depends on"/>
+    <tableColumn id="5" name="Produces"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table1" displayName="Table1" ref="A1:G11" totalsRowShown="0">
-  <autoFilter ref="A1:G11" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A1:E10" totalsRowShown="0">
+  <autoFilter ref="A1:E10"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="2D/3D"/>
+    <tableColumn id="2" name="Model Class"/>
+    <tableColumn id="3" name="Model Type"/>
+    <tableColumn id="4" name="Depends on"/>
+    <tableColumn id="5" name="Produces"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G11" totalsRowShown="0">
+  <autoFilter ref="A1:G11"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="OAuthor"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Dimensionality"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="Model Class"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="Model Type"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="Depends on"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0400-000006000000}" name="Produces"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0400-000007000000}" name="Comment"/>
+    <tableColumn id="1" name="OAuthor"/>
+    <tableColumn id="2" name="Dimensionality"/>
+    <tableColumn id="3" name="Model Class"/>
+    <tableColumn id="4" name="Model Type"/>
+    <tableColumn id="5" name="Depends on"/>
+    <tableColumn id="6" name="Produces"/>
+    <tableColumn id="7" name="Comment"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -632,8 +641,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F05E7B5E-329D-294E-9043-938BC7C2257E}">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:E14"/>
@@ -642,9 +651,9 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -661,7 +670,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -678,7 +687,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -692,7 +701,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -706,7 +715,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -723,7 +732,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -740,7 +749,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -754,7 +763,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -771,7 +780,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -785,7 +794,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="16" customHeight="1">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -799,7 +808,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -816,7 +825,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -830,7 +839,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -841,7 +850,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -857,12 +866,17 @@
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:E14"/>
@@ -871,9 +885,9 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -890,7 +904,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -907,7 +921,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -921,7 +935,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -935,7 +949,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -952,7 +966,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -969,7 +983,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -983,7 +997,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -1000,7 +1014,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -1014,7 +1028,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="16" customHeight="1">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -1028,7 +1042,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1045,7 +1059,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -1059,7 +1073,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -1070,7 +1084,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -1086,12 +1100,251 @@
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:E14"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="16" customHeight="1">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:E13"/>
@@ -1100,9 +1353,9 @@
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1119,7 +1372,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1136,7 +1389,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1150,7 +1403,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1167,7 +1420,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -1184,7 +1437,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -1198,7 +1451,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -1215,7 +1468,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -1229,7 +1482,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -1243,7 +1496,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="16" customHeight="1">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -1260,7 +1513,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1274,7 +1527,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -1285,7 +1538,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -1301,12 +1554,17 @@
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <sheetPr>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:E11"/>
@@ -1315,9 +1573,9 @@
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1334,7 +1592,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1351,7 +1609,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1365,7 +1623,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1382,7 +1640,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -1399,7 +1657,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -1413,7 +1671,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -1430,7 +1688,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -1444,7 +1702,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -1458,7 +1716,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="16" customHeight="1">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -1475,7 +1733,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1494,12 +1752,17 @@
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <sheetPr>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:E11"/>
@@ -1508,9 +1771,9 @@
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1527,7 +1790,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1544,7 +1807,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1558,7 +1821,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1575,7 +1838,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -1592,7 +1855,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -1606,7 +1869,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -1623,7 +1886,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -1637,7 +1900,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -1651,7 +1914,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="16" customHeight="1">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -1668,7 +1931,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1687,12 +1950,17 @@
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <sheetPr>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:G11"/>
@@ -1701,9 +1969,9 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -1726,7 +1994,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -1746,7 +2014,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>27</v>
       </c>
@@ -1763,7 +2031,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>27</v>
       </c>
@@ -1783,7 +2051,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>29</v>
       </c>
@@ -1803,7 +2071,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -1820,7 +2088,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>29</v>
       </c>
@@ -1840,7 +2108,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -1857,7 +2125,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -1874,7 +2142,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>32</v>
       </c>
@@ -1894,7 +2162,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7">
       <c r="A11" s="2" t="s">
         <v>33</v>
       </c>
@@ -1920,5 +2188,10 @@
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/model_class_and_types.xlsx
+++ b/model_class_and_types.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27815"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/piepi/CellOrganizer/cellorganizer-docs/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14180" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="30120" windowHeight="16200" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="v2.8.0" sheetId="9" r:id="rId1"/>
@@ -17,11 +22,11 @@
   </sheets>
   <calcPr calcId="0" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -31,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="42">
   <si>
     <t>2D/3D</t>
   </si>
@@ -154,6 +159,9 @@
   </si>
   <si>
     <t>pca</t>
+  </si>
+  <si>
+    <t>spharm_rpdm</t>
   </si>
 </sst>
 </file>
@@ -645,15 +653,20 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" zoomScale="165" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="27.83203125" customWidth="1"/>
+    <col min="3" max="3" width="38.33203125" customWidth="1"/>
+    <col min="4" max="4" width="42.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -670,7 +683,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -687,7 +700,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -701,7 +714,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -715,7 +728,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -732,7 +745,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -749,7 +762,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -763,7 +776,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -780,7 +793,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -794,7 +807,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="16" customHeight="1">
+    <row r="10" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -808,7 +821,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -825,7 +838,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -839,7 +852,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -850,7 +863,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -859,6 +872,28 @@
       </c>
       <c r="C14" t="s">
         <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -866,11 +901,6 @@
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -885,9 +915,9 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -904,7 +934,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -921,7 +951,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -935,7 +965,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -949,7 +979,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -966,7 +996,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -983,7 +1013,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -997,7 +1027,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -1014,7 +1044,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -1028,7 +1058,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="16" customHeight="1">
+    <row r="10" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -1042,7 +1072,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1059,7 +1089,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -1073,7 +1103,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -1084,7 +1114,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -1100,11 +1130,6 @@
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -1119,9 +1144,9 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1138,7 +1163,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1155,7 +1180,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1169,7 +1194,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1183,7 +1208,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1200,7 +1225,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -1217,7 +1242,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -1231,7 +1256,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -1248,7 +1273,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -1262,7 +1287,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="16" customHeight="1">
+    <row r="10" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -1276,7 +1301,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1293,7 +1318,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -1307,7 +1332,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -1318,7 +1343,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -1334,11 +1359,6 @@
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -1353,9 +1373,9 @@
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1372,7 +1392,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1389,7 +1409,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1403,7 +1423,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1420,7 +1440,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -1437,7 +1457,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -1451,7 +1471,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -1468,7 +1488,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -1482,7 +1502,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -1496,7 +1516,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="16" customHeight="1">
+    <row r="10" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -1513,7 +1533,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1527,7 +1547,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -1538,7 +1558,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -1554,11 +1574,6 @@
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -1573,9 +1588,9 @@
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1592,7 +1607,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1609,7 +1624,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1623,7 +1638,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1640,7 +1655,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -1657,7 +1672,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -1671,7 +1686,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -1688,7 +1703,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -1702,7 +1717,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -1716,7 +1731,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="16" customHeight="1">
+    <row r="10" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -1733,7 +1748,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1752,11 +1767,6 @@
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -1771,9 +1781,9 @@
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1790,7 +1800,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1807,7 +1817,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1821,7 +1831,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1838,7 +1848,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -1855,7 +1865,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -1869,7 +1879,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -1886,7 +1896,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -1900,7 +1910,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -1914,7 +1924,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="16" customHeight="1">
+    <row r="10" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -1931,7 +1941,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1950,11 +1960,6 @@
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -1969,9 +1974,9 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -1994,7 +1999,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -2014,7 +2019,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>27</v>
       </c>
@@ -2031,7 +2036,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>27</v>
       </c>
@@ -2051,7 +2056,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>29</v>
       </c>
@@ -2071,7 +2076,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -2088,7 +2093,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>29</v>
       </c>
@@ -2108,7 +2113,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -2125,7 +2130,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -2142,7 +2147,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>32</v>
       </c>
@@ -2162,7 +2167,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>33</v>
       </c>
@@ -2188,10 +2193,5 @@
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/model_class_and_types.xlsx
+++ b/model_class_and_types.xlsx
@@ -1,32 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10523"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/icaoberg/Desktop/cellorganizer-docs/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{F0D26C34-C35B-984F-B9AD-580A15E81BD4}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="19200" windowHeight="19540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14120" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="v2.7.2" sheetId="6" r:id="rId1"/>
-    <sheet name="v2.7.1" sheetId="5" r:id="rId2"/>
-    <sheet name="v2.7" sheetId="3" r:id="rId3"/>
-    <sheet name="v2.6" sheetId="4" r:id="rId4"/>
-    <sheet name="v2.5" sheetId="1" r:id="rId5"/>
-    <sheet name="2D-3D" sheetId="2" r:id="rId6"/>
+    <sheet name="v2.8.0" sheetId="7" r:id="rId1"/>
+    <sheet name="v2.7.2" sheetId="6" r:id="rId2"/>
+    <sheet name="v2.7.1" sheetId="5" r:id="rId3"/>
+    <sheet name="v2.7" sheetId="3" r:id="rId4"/>
+    <sheet name="v2.6" sheetId="4" r:id="rId5"/>
+    <sheet name="v2.5" sheetId="1" r:id="rId6"/>
+    <sheet name="2D-3D" sheetId="2" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="0" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -36,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="41">
   <si>
     <t>2D/3D</t>
   </si>
@@ -164,7 +159,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -226,86 +221,100 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{92FA6D65-1AFB-464C-85DE-CB7B4A859DF7}" name="Table13467" displayName="Table13467" ref="A1:E11" totalsRowShown="0">
-  <autoFilter ref="A1:E11" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table134678" displayName="Table134678" ref="A1:E11" totalsRowShown="0">
+  <autoFilter ref="A1:E11"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{A8907B08-C33C-D349-8327-99456ACE60BD}" name="2D/3D"/>
-    <tableColumn id="2" xr3:uid="{C50F2F52-761F-134D-9AAD-009A097A9314}" name="Model Class"/>
-    <tableColumn id="3" xr3:uid="{EC16A242-BCF1-DD4A-8FB4-F630FBBB49A5}" name="Model Type"/>
-    <tableColumn id="4" xr3:uid="{A5DDA58A-2008-2C4C-A2FC-8408A8B1B58E}" name="Depends on"/>
-    <tableColumn id="5" xr3:uid="{15B91142-38AD-4F46-BDF3-044FFAA6EC06}" name="Produces"/>
+    <tableColumn id="1" name="2D/3D"/>
+    <tableColumn id="2" name="Model Class"/>
+    <tableColumn id="3" name="Model Type"/>
+    <tableColumn id="4" name="Depends on"/>
+    <tableColumn id="5" name="Produces"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1346" displayName="Table1346" ref="A1:E11" totalsRowShown="0">
-  <autoFilter ref="A1:E11" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table13467" displayName="Table13467" ref="A1:E11" totalsRowShown="0">
+  <autoFilter ref="A1:E11"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="2D/3D"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Model Class"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Model Type"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Depends on"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Produces"/>
+    <tableColumn id="1" name="2D/3D"/>
+    <tableColumn id="2" name="Model Class"/>
+    <tableColumn id="3" name="Model Type"/>
+    <tableColumn id="4" name="Depends on"/>
+    <tableColumn id="5" name="Produces"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table134" displayName="Table134" ref="A1:E10" totalsRowShown="0">
-  <autoFilter ref="A1:E10" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table1346" displayName="Table1346" ref="A1:E11" totalsRowShown="0">
+  <autoFilter ref="A1:E11"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="2D/3D"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Model Class"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Model Type"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Depends on"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Produces"/>
+    <tableColumn id="1" name="2D/3D"/>
+    <tableColumn id="2" name="Model Class"/>
+    <tableColumn id="3" name="Model Type"/>
+    <tableColumn id="4" name="Depends on"/>
+    <tableColumn id="5" name="Produces"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table135" displayName="Table135" ref="A1:E10" totalsRowShown="0">
-  <autoFilter ref="A1:E10" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table134" displayName="Table134" ref="A1:E10" totalsRowShown="0">
+  <autoFilter ref="A1:E10"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="2D/3D"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Model Class"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Model Type"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Depends on"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Produces"/>
+    <tableColumn id="1" name="2D/3D"/>
+    <tableColumn id="2" name="Model Class"/>
+    <tableColumn id="3" name="Model Type"/>
+    <tableColumn id="4" name="Depends on"/>
+    <tableColumn id="5" name="Produces"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table13" displayName="Table13" ref="A1:E10" totalsRowShown="0">
-  <autoFilter ref="A1:E10" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table135" displayName="Table135" ref="A1:E10" totalsRowShown="0">
+  <autoFilter ref="A1:E10"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="2D/3D"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Model Class"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Model Type"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Depends on"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Produces"/>
+    <tableColumn id="1" name="2D/3D"/>
+    <tableColumn id="2" name="Model Class"/>
+    <tableColumn id="3" name="Model Type"/>
+    <tableColumn id="4" name="Depends on"/>
+    <tableColumn id="5" name="Produces"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table1" displayName="Table1" ref="A1:G11" totalsRowShown="0">
-  <autoFilter ref="A1:G11" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A1:E10" totalsRowShown="0">
+  <autoFilter ref="A1:E10"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="2D/3D"/>
+    <tableColumn id="2" name="Model Class"/>
+    <tableColumn id="3" name="Model Type"/>
+    <tableColumn id="4" name="Depends on"/>
+    <tableColumn id="5" name="Produces"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G11" totalsRowShown="0">
+  <autoFilter ref="A1:G11"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="OAuthor"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Dimensionality"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="Model Class"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="Model Type"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="Depends on"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0400-000006000000}" name="Produces"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0400-000007000000}" name="Comment"/>
+    <tableColumn id="1" name="OAuthor"/>
+    <tableColumn id="2" name="Dimensionality"/>
+    <tableColumn id="3" name="Model Class"/>
+    <tableColumn id="4" name="Model Type"/>
+    <tableColumn id="5" name="Depends on"/>
+    <tableColumn id="6" name="Produces"/>
+    <tableColumn id="7" name="Comment"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -632,8 +641,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F05E7B5E-329D-294E-9043-938BC7C2257E}">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:E14"/>
@@ -642,9 +651,9 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -661,7 +670,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -678,7 +687,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -692,7 +701,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -706,7 +715,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -723,7 +732,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -740,7 +749,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -754,7 +763,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -771,7 +780,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -785,7 +794,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="16" customHeight="1">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -799,7 +808,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -816,7 +825,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -830,7 +839,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -841,7 +850,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -857,12 +866,17 @@
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:E14"/>
@@ -871,9 +885,9 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -890,7 +904,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -907,7 +921,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -921,7 +935,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -935,7 +949,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -952,7 +966,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -969,7 +983,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -983,7 +997,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -1000,7 +1014,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -1014,7 +1028,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="16" customHeight="1">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -1028,7 +1042,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1045,7 +1059,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -1059,7 +1073,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -1070,7 +1084,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -1086,12 +1100,251 @@
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:E14"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="16" customHeight="1">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:E13"/>
@@ -1100,9 +1353,9 @@
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1119,7 +1372,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1136,7 +1389,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1150,7 +1403,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1167,7 +1420,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -1184,7 +1437,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -1198,7 +1451,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -1215,7 +1468,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -1229,7 +1482,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -1243,7 +1496,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="16" customHeight="1">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -1260,7 +1513,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1274,7 +1527,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -1285,7 +1538,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -1301,12 +1554,17 @@
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <sheetPr>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:E11"/>
@@ -1315,9 +1573,9 @@
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1334,7 +1592,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1351,7 +1609,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1365,7 +1623,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1382,7 +1640,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -1399,7 +1657,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -1413,7 +1671,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -1430,7 +1688,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -1444,7 +1702,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -1458,7 +1716,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="16" customHeight="1">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -1475,7 +1733,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1494,12 +1752,17 @@
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <sheetPr>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:E11"/>
@@ -1508,9 +1771,9 @@
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1527,7 +1790,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1544,7 +1807,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1558,7 +1821,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1575,7 +1838,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -1592,7 +1855,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -1606,7 +1869,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -1623,7 +1886,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -1637,7 +1900,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -1651,7 +1914,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="16" customHeight="1">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -1668,7 +1931,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1687,12 +1950,17 @@
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <sheetPr>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:G11"/>
@@ -1701,9 +1969,9 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -1726,7 +1994,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -1746,7 +2014,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>27</v>
       </c>
@@ -1763,7 +2031,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>27</v>
       </c>
@@ -1783,7 +2051,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>29</v>
       </c>
@@ -1803,7 +2071,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -1820,7 +2088,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>29</v>
       </c>
@@ -1840,7 +2108,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -1857,7 +2125,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -1874,7 +2142,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>32</v>
       </c>
@@ -1894,7 +2162,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7">
       <c r="A11" s="2" t="s">
         <v>33</v>
       </c>
@@ -1920,5 +2188,10 @@
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/model_class_and_types.xlsx
+++ b/model_class_and_types.xlsx
@@ -1,18 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27815"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/piepi/CellOrganizer/cellorganizer-docs/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="30120" windowHeight="16200" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14120" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="v2.8.0" sheetId="9" r:id="rId1"/>
+    <sheet name="v2.8.0" sheetId="7" r:id="rId1"/>
     <sheet name="v2.7.2" sheetId="6" r:id="rId2"/>
     <sheet name="v2.7.1" sheetId="5" r:id="rId3"/>
     <sheet name="v2.7" sheetId="3" r:id="rId4"/>
@@ -22,11 +17,11 @@
   </sheets>
   <calcPr calcId="0" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -36,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="41">
   <si>
     <t>2D/3D</t>
   </si>
@@ -159,9 +154,6 @@
   </si>
   <si>
     <t>pca</t>
-  </si>
-  <si>
-    <t>spharm_rpdm</t>
   </si>
 </sst>
 </file>
@@ -653,20 +645,15 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="165" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="27.83203125" customWidth="1"/>
-    <col min="3" max="3" width="38.33203125" customWidth="1"/>
-    <col min="4" max="4" width="42.6640625" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -683,7 +670,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -700,7 +687,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -714,7 +701,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -728,7 +715,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -745,7 +732,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -762,7 +749,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -776,7 +763,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -793,7 +780,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -807,7 +794,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="16" customHeight="1">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -821,7 +808,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -838,7 +825,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -852,7 +839,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -863,7 +850,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -872,28 +859,6 @@
       </c>
       <c r="C14" t="s">
         <v>39</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" t="s">
-        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -901,6 +866,11 @@
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -915,9 +885,9 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -934,7 +904,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -951,7 +921,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -965,7 +935,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -979,7 +949,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -996,7 +966,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -1013,7 +983,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -1027,7 +997,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -1044,7 +1014,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -1058,7 +1028,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="16" customHeight="1">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -1072,7 +1042,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1089,7 +1059,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -1103,7 +1073,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -1114,7 +1084,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -1130,6 +1100,11 @@
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1144,9 +1119,9 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1163,7 +1138,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1180,7 +1155,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1194,7 +1169,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1208,7 +1183,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1225,7 +1200,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -1242,7 +1217,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -1256,7 +1231,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -1273,7 +1248,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -1287,7 +1262,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="16" customHeight="1">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -1301,7 +1276,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1318,7 +1293,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -1332,7 +1307,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -1343,7 +1318,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -1359,6 +1334,11 @@
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1373,9 +1353,9 @@
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1392,7 +1372,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1409,7 +1389,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1423,7 +1403,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1440,7 +1420,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -1457,7 +1437,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -1471,7 +1451,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -1488,7 +1468,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -1502,7 +1482,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -1516,7 +1496,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="16" customHeight="1">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -1533,7 +1513,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1547,7 +1527,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -1558,7 +1538,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -1574,6 +1554,11 @@
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1588,9 +1573,9 @@
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1607,7 +1592,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1624,7 +1609,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1638,7 +1623,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1655,7 +1640,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -1672,7 +1657,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -1686,7 +1671,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -1703,7 +1688,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -1717,7 +1702,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -1731,7 +1716,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="16" customHeight="1">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -1748,7 +1733,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1767,6 +1752,11 @@
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1781,9 +1771,9 @@
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1800,7 +1790,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1817,7 +1807,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1831,7 +1821,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1848,7 +1838,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -1865,7 +1855,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -1879,7 +1869,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -1896,7 +1886,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -1910,7 +1900,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -1924,7 +1914,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="16" customHeight="1">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -1941,7 +1931,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1960,6 +1950,11 @@
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1974,9 +1969,9 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -1999,7 +1994,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -2019,7 +2014,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>27</v>
       </c>
@@ -2036,7 +2031,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>27</v>
       </c>
@@ -2056,7 +2051,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>29</v>
       </c>
@@ -2076,7 +2071,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -2093,7 +2088,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>29</v>
       </c>
@@ -2113,7 +2108,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -2130,7 +2125,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -2147,7 +2142,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>32</v>
       </c>
@@ -2167,7 +2162,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7">
       <c r="A11" s="2" t="s">
         <v>33</v>
       </c>
@@ -2193,5 +2188,10 @@
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/model_class_and_types.xlsx
+++ b/model_class_and_types.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14120" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14040" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="v2.8.0" sheetId="7" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="44">
   <si>
     <t>2D/3D</t>
   </si>
@@ -154,6 +154,15 @@
   </si>
   <si>
     <t>pca</t>
+  </si>
+  <si>
+    <t>SPHARM</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>cell membrane, nuclear membrane</t>
   </si>
 </sst>
 </file>
@@ -645,10 +654,10 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -859,6 +868,23 @@
       </c>
       <c r="C14" t="s">
         <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/model_class_and_types.xlsx
+++ b/model_class_and_types.xlsx
@@ -1,27 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10308"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/icaoberg/Desktop/cellorganizer-docs/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C4F0DF2-42BE-044D-BBEA-0E6F6D01D458}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14040" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="28800" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="v2.8.0" sheetId="7" r:id="rId1"/>
-    <sheet name="v2.7.2" sheetId="6" r:id="rId2"/>
-    <sheet name="v2.7.1" sheetId="5" r:id="rId3"/>
-    <sheet name="v2.7" sheetId="3" r:id="rId4"/>
-    <sheet name="v2.6" sheetId="4" r:id="rId5"/>
-    <sheet name="v2.5" sheetId="1" r:id="rId6"/>
-    <sheet name="2D-3D" sheetId="2" r:id="rId7"/>
+    <sheet name="v2.9.0" sheetId="8" r:id="rId1"/>
+    <sheet name="v2.8.0" sheetId="7" r:id="rId2"/>
+    <sheet name="v2.7.2" sheetId="6" r:id="rId3"/>
+    <sheet name="v2.7.1" sheetId="5" r:id="rId4"/>
+    <sheet name="v2.7" sheetId="3" r:id="rId5"/>
+    <sheet name="v2.6" sheetId="4" r:id="rId6"/>
+    <sheet name="v2.5" sheetId="1" r:id="rId7"/>
+    <sheet name="2D-3D" sheetId="2" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4" concurrentCalc="0"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -31,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="44">
   <si>
     <t>2D/3D</t>
   </si>
@@ -168,7 +175,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -230,100 +237,114 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table134678" displayName="Table134678" ref="A1:E11" totalsRowShown="0">
-  <autoFilter ref="A1:E11"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{BCD50072-D7BB-7D48-96B3-520DC13242F2}" name="Table1346789" displayName="Table1346789" ref="A1:E11" totalsRowShown="0">
+  <autoFilter ref="A1:E11" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="2D/3D"/>
-    <tableColumn id="2" name="Model Class"/>
-    <tableColumn id="3" name="Model Type"/>
-    <tableColumn id="4" name="Depends on"/>
-    <tableColumn id="5" name="Produces"/>
+    <tableColumn id="1" xr3:uid="{E89C420F-B99B-1345-A5A5-8E4C675EB878}" name="2D/3D"/>
+    <tableColumn id="2" xr3:uid="{69E27634-D54E-A04E-83BE-9481332F05AE}" name="Model Class"/>
+    <tableColumn id="3" xr3:uid="{2462BC7A-E220-1348-AA64-CD3B317EEEDF}" name="Model Type"/>
+    <tableColumn id="4" xr3:uid="{DA5FE01C-8F8B-1141-8114-0FAB962D37EB}" name="Depends on"/>
+    <tableColumn id="5" xr3:uid="{4C17181D-732F-EC40-AEBF-C01B7A522127}" name="Produces"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table13467" displayName="Table13467" ref="A1:E11" totalsRowShown="0">
-  <autoFilter ref="A1:E11"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table134678" displayName="Table134678" ref="A1:E11" totalsRowShown="0">
+  <autoFilter ref="A1:E11" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="2D/3D"/>
-    <tableColumn id="2" name="Model Class"/>
-    <tableColumn id="3" name="Model Type"/>
-    <tableColumn id="4" name="Depends on"/>
-    <tableColumn id="5" name="Produces"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="2D/3D"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Model Class"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Model Type"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Depends on"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Produces"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table1346" displayName="Table1346" ref="A1:E11" totalsRowShown="0">
-  <autoFilter ref="A1:E11"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table13467" displayName="Table13467" ref="A1:E11" totalsRowShown="0">
+  <autoFilter ref="A1:E11" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="2D/3D"/>
-    <tableColumn id="2" name="Model Class"/>
-    <tableColumn id="3" name="Model Type"/>
-    <tableColumn id="4" name="Depends on"/>
-    <tableColumn id="5" name="Produces"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="2D/3D"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Model Class"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Model Type"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Depends on"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Produces"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table134" displayName="Table134" ref="A1:E10" totalsRowShown="0">
-  <autoFilter ref="A1:E10"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table1346" displayName="Table1346" ref="A1:E11" totalsRowShown="0">
+  <autoFilter ref="A1:E11" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="2D/3D"/>
-    <tableColumn id="2" name="Model Class"/>
-    <tableColumn id="3" name="Model Type"/>
-    <tableColumn id="4" name="Depends on"/>
-    <tableColumn id="5" name="Produces"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="2D/3D"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Model Class"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Model Type"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Depends on"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Produces"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table135" displayName="Table135" ref="A1:E10" totalsRowShown="0">
-  <autoFilter ref="A1:E10"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table134" displayName="Table134" ref="A1:E10" totalsRowShown="0">
+  <autoFilter ref="A1:E10" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="2D/3D"/>
-    <tableColumn id="2" name="Model Class"/>
-    <tableColumn id="3" name="Model Type"/>
-    <tableColumn id="4" name="Depends on"/>
-    <tableColumn id="5" name="Produces"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="2D/3D"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Model Class"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Model Type"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Depends on"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Produces"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A1:E10" totalsRowShown="0">
-  <autoFilter ref="A1:E10"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table135" displayName="Table135" ref="A1:E10" totalsRowShown="0">
+  <autoFilter ref="A1:E10" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="2D/3D"/>
-    <tableColumn id="2" name="Model Class"/>
-    <tableColumn id="3" name="Model Type"/>
-    <tableColumn id="4" name="Depends on"/>
-    <tableColumn id="5" name="Produces"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="2D/3D"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Model Class"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="Model Type"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="Depends on"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="Produces"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G11" totalsRowShown="0">
-  <autoFilter ref="A1:G11"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table13" displayName="Table13" ref="A1:E10" totalsRowShown="0">
+  <autoFilter ref="A1:E10" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="2D/3D"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Model Class"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="Model Type"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="Depends on"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="Produces"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="Table1" displayName="Table1" ref="A1:G11" totalsRowShown="0">
+  <autoFilter ref="A1:G11" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="OAuthor"/>
-    <tableColumn id="2" name="Dimensionality"/>
-    <tableColumn id="3" name="Model Class"/>
-    <tableColumn id="4" name="Model Type"/>
-    <tableColumn id="5" name="Depends on"/>
-    <tableColumn id="6" name="Produces"/>
-    <tableColumn id="7" name="Comment"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="OAuthor"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name="Dimensionality"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0600-000003000000}" name="Model Class"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0600-000004000000}" name="Model Type"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0600-000005000000}" name="Depends on"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0600-000006000000}" name="Produces"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0600-000007000000}" name="Comment"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -650,19 +671,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C17250F-5F2D-FE4A-BF1F-432E59BE5B97}">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -679,7 +700,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -696,7 +717,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -710,7 +731,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -724,7 +745,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -741,7 +762,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -758,7 +779,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -772,7 +793,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -789,7 +810,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -803,7 +824,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="16" customHeight="1">
+    <row r="10" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -817,7 +838,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -834,7 +855,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -848,7 +869,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -859,7 +880,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -870,7 +891,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -892,28 +913,23 @@
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -930,7 +946,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -947,7 +963,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -961,7 +977,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -975,7 +991,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -992,7 +1008,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -1009,7 +1025,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -1023,7 +1039,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -1040,7 +1056,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -1054,7 +1070,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="16" customHeight="1">
+    <row r="10" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -1068,7 +1084,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1085,7 +1101,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -1099,7 +1115,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -1110,7 +1126,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -1119,6 +1135,23 @@
       </c>
       <c r="C14" t="s">
         <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1135,8 +1168,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:E14"/>
@@ -1145,9 +1178,9 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1164,7 +1197,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1181,7 +1214,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1195,7 +1228,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1209,7 +1242,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1226,7 +1259,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -1243,7 +1276,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -1257,7 +1290,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -1274,7 +1307,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -1288,7 +1321,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="16" customHeight="1">
+    <row r="10" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -1302,7 +1335,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1319,7 +1352,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -1333,7 +1366,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -1344,7 +1377,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -1369,19 +1402,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1398,7 +1431,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1415,7 +1448,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1429,88 +1462,88 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
         <v>12</v>
       </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
         <v>7</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D6" t="s">
         <v>8</v>
       </c>
-      <c r="E5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="E6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
         <v>14</v>
       </c>
-      <c r="E6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="E7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
         <v>12</v>
       </c>
-      <c r="D7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" t="s">
-        <v>16</v>
+      <c r="D8" t="s">
+        <v>9</v>
       </c>
       <c r="E8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B9" t="s">
         <v>15</v>
@@ -1522,56 +1555,70 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="16" customHeight="1">
+    <row r="10" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>13</v>
       </c>
       <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
         <v>18</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C11" t="s">
         <v>19</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D11" t="s">
         <v>8</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
         <v>21</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C12" t="s">
         <v>22</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E12" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
-      <c r="A12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
         <v>37</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C13" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
         <v>38</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C14" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1589,19 +1636,19 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1618,7 +1665,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1635,7 +1682,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1649,7 +1696,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1666,7 +1713,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -1683,7 +1730,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -1697,7 +1744,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -1714,7 +1761,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -1728,7 +1775,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -1742,7 +1789,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="16" customHeight="1">
+    <row r="10" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -1759,7 +1806,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1771,6 +1818,28 @@
       </c>
       <c r="E11" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1787,8 +1856,8 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:E11"/>
@@ -1797,9 +1866,9 @@
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1816,7 +1885,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1833,7 +1902,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1847,7 +1916,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1864,7 +1933,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -1881,7 +1950,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -1895,7 +1964,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -1912,7 +1981,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -1926,7 +1995,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -1940,7 +2009,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="16" customHeight="1">
+    <row r="10" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -1957,7 +2026,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1985,8 +2054,206 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:G11"/>
@@ -1995,9 +2262,9 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -2020,7 +2287,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -2040,7 +2307,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>27</v>
       </c>
@@ -2057,7 +2324,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>27</v>
       </c>
@@ -2077,7 +2344,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>29</v>
       </c>
@@ -2097,7 +2364,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -2114,7 +2381,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>29</v>
       </c>
@@ -2134,7 +2401,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -2151,7 +2418,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -2168,7 +2435,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>32</v>
       </c>
@@ -2188,7 +2455,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>33</v>
       </c>
